--- a/datafiles/ExcelRead.xlsx.xlsx
+++ b/datafiles/ExcelRead.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radhekrishna-NUC\IdeaProjects\SeleniumRestart\datafiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7333C860-2CAA-45F4-ABA0-54B3F0518F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49812F67-3715-401C-BC22-9115EF073379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10665" yWindow="5160" windowWidth="17205" windowHeight="9690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,10 +372,15 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
